--- a/Data_file/import_date_SO_05.xlsx
+++ b/Data_file/import_date_SO_05.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="1729">
   <si>
     <t>name</t>
   </si>
@@ -3906,12 +3906,1320 @@
   </si>
   <si>
     <t>SO-0224659</t>
+  </si>
+  <si>
+    <t>BSO-0001186</t>
+  </si>
+  <si>
+    <t>BSO-0001187</t>
+  </si>
+  <si>
+    <t>BSO-0001188</t>
+  </si>
+  <si>
+    <t>BSO-0001189</t>
+  </si>
+  <si>
+    <t>BSO-0001190</t>
+  </si>
+  <si>
+    <t>BSO-0001191</t>
+  </si>
+  <si>
+    <t>BSO-0001192</t>
+  </si>
+  <si>
+    <t>BSO-0001193</t>
+  </si>
+  <si>
+    <t>BSO-0001194</t>
+  </si>
+  <si>
+    <t>BSO-0001195</t>
+  </si>
+  <si>
+    <t>BSO-0001196</t>
+  </si>
+  <si>
+    <t>BSO-0001197</t>
+  </si>
+  <si>
+    <t>BSO-0001198</t>
+  </si>
+  <si>
+    <t>BSO-0001199</t>
+  </si>
+  <si>
+    <t>BSO-0001200</t>
+  </si>
+  <si>
+    <t>BSO-0001201</t>
+  </si>
+  <si>
+    <t>ELO0001322</t>
+  </si>
+  <si>
+    <t>ELO0001323</t>
+  </si>
+  <si>
+    <t>EMM0000294</t>
+  </si>
+  <si>
+    <t>EMM0000295</t>
+  </si>
+  <si>
+    <t>POS0018386</t>
+  </si>
+  <si>
+    <t>POS0018387</t>
+  </si>
+  <si>
+    <t>POS0018388</t>
+  </si>
+  <si>
+    <t>POS0018389</t>
+  </si>
+  <si>
+    <t>POS0018390</t>
+  </si>
+  <si>
+    <t>POS0018391</t>
+  </si>
+  <si>
+    <t>POS0018392</t>
+  </si>
+  <si>
+    <t>POS0018393</t>
+  </si>
+  <si>
+    <t>POS0018394</t>
+  </si>
+  <si>
+    <t>POS0018395</t>
+  </si>
+  <si>
+    <t>POS0018396</t>
+  </si>
+  <si>
+    <t>POS0018397</t>
+  </si>
+  <si>
+    <t>POS0018398</t>
+  </si>
+  <si>
+    <t>POS0018399</t>
+  </si>
+  <si>
+    <t>POS0018400</t>
+  </si>
+  <si>
+    <t>POS0018401</t>
+  </si>
+  <si>
+    <t>POS0018402</t>
+  </si>
+  <si>
+    <t>POS0018403</t>
+  </si>
+  <si>
+    <t>POS0018404</t>
+  </si>
+  <si>
+    <t>POS0018405</t>
+  </si>
+  <si>
+    <t>POS0018406</t>
+  </si>
+  <si>
+    <t>POS0018407</t>
+  </si>
+  <si>
+    <t>POS0018408</t>
+  </si>
+  <si>
+    <t>POS0018409</t>
+  </si>
+  <si>
+    <t>POS0018410</t>
+  </si>
+  <si>
+    <t>POS0018411</t>
+  </si>
+  <si>
+    <t>POS0018412</t>
+  </si>
+  <si>
+    <t>POS0018413</t>
+  </si>
+  <si>
+    <t>POS0018414</t>
+  </si>
+  <si>
+    <t>POS0018415</t>
+  </si>
+  <si>
+    <t>POS0018416</t>
+  </si>
+  <si>
+    <t>POS0018417</t>
+  </si>
+  <si>
+    <t>POS0018418</t>
+  </si>
+  <si>
+    <t>POS0018419</t>
+  </si>
+  <si>
+    <t>POS0018420</t>
+  </si>
+  <si>
+    <t>POS0018421</t>
+  </si>
+  <si>
+    <t>POS0018422</t>
+  </si>
+  <si>
+    <t>POS0018423</t>
+  </si>
+  <si>
+    <t>POS0018424</t>
+  </si>
+  <si>
+    <t>POS0018425</t>
+  </si>
+  <si>
+    <t>POS0018426</t>
+  </si>
+  <si>
+    <t>POS0018427</t>
+  </si>
+  <si>
+    <t>POS0018428</t>
+  </si>
+  <si>
+    <t>POS0018429</t>
+  </si>
+  <si>
+    <t>POS0018430</t>
+  </si>
+  <si>
+    <t>POS0018431</t>
+  </si>
+  <si>
+    <t>POS0018432</t>
+  </si>
+  <si>
+    <t>POS0018433</t>
+  </si>
+  <si>
+    <t>POS0018434</t>
+  </si>
+  <si>
+    <t>POS0018435</t>
+  </si>
+  <si>
+    <t>POS0018436</t>
+  </si>
+  <si>
+    <t>POS0018437</t>
+  </si>
+  <si>
+    <t>POS0018438</t>
+  </si>
+  <si>
+    <t>POS0018439</t>
+  </si>
+  <si>
+    <t>POS0018440</t>
+  </si>
+  <si>
+    <t>POS0018441</t>
+  </si>
+  <si>
+    <t>POS0018442</t>
+  </si>
+  <si>
+    <t>POS0018443</t>
+  </si>
+  <si>
+    <t>POS0018444</t>
+  </si>
+  <si>
+    <t>POS0018445</t>
+  </si>
+  <si>
+    <t>POS0018446</t>
+  </si>
+  <si>
+    <t>POS0018447</t>
+  </si>
+  <si>
+    <t>POS0018448</t>
+  </si>
+  <si>
+    <t>POS0018449</t>
+  </si>
+  <si>
+    <t>POS0018450</t>
+  </si>
+  <si>
+    <t>POS0018451</t>
+  </si>
+  <si>
+    <t>POS0018452</t>
+  </si>
+  <si>
+    <t>POS0018453</t>
+  </si>
+  <si>
+    <t>POS0018454</t>
+  </si>
+  <si>
+    <t>POS0018455</t>
+  </si>
+  <si>
+    <t>POS0018456</t>
+  </si>
+  <si>
+    <t>POS0018457</t>
+  </si>
+  <si>
+    <t>POS0018458</t>
+  </si>
+  <si>
+    <t>POS0018459</t>
+  </si>
+  <si>
+    <t>POS0018460</t>
+  </si>
+  <si>
+    <t>POS0018461</t>
+  </si>
+  <si>
+    <t>POS0018462</t>
+  </si>
+  <si>
+    <t>POS0018463</t>
+  </si>
+  <si>
+    <t>POS0018464</t>
+  </si>
+  <si>
+    <t>POS0018465</t>
+  </si>
+  <si>
+    <t>POS0018466</t>
+  </si>
+  <si>
+    <t>POS0018467</t>
+  </si>
+  <si>
+    <t>POS0018468</t>
+  </si>
+  <si>
+    <t>POS0018469</t>
+  </si>
+  <si>
+    <t>POS0018470</t>
+  </si>
+  <si>
+    <t>POS0018471</t>
+  </si>
+  <si>
+    <t>POS0018472</t>
+  </si>
+  <si>
+    <t>POS0018473</t>
+  </si>
+  <si>
+    <t>POS0018474</t>
+  </si>
+  <si>
+    <t>POS0018475</t>
+  </si>
+  <si>
+    <t>POS0018476</t>
+  </si>
+  <si>
+    <t>POS0018477</t>
+  </si>
+  <si>
+    <t>POS0018478</t>
+  </si>
+  <si>
+    <t>POS0018479</t>
+  </si>
+  <si>
+    <t>POS0018480</t>
+  </si>
+  <si>
+    <t>POS0018481</t>
+  </si>
+  <si>
+    <t>POS0018482</t>
+  </si>
+  <si>
+    <t>POS0018483</t>
+  </si>
+  <si>
+    <t>POS0018484</t>
+  </si>
+  <si>
+    <t>POS0018485</t>
+  </si>
+  <si>
+    <t>POS0018486</t>
+  </si>
+  <si>
+    <t>POS0018487</t>
+  </si>
+  <si>
+    <t>SO-0224660</t>
+  </si>
+  <si>
+    <t>SO-0224661</t>
+  </si>
+  <si>
+    <t>SO-0224663</t>
+  </si>
+  <si>
+    <t>SO-0224664</t>
+  </si>
+  <si>
+    <t>SO-0224665</t>
+  </si>
+  <si>
+    <t>SO-0224666</t>
+  </si>
+  <si>
+    <t>SO-0224667</t>
+  </si>
+  <si>
+    <t>SO-0224668</t>
+  </si>
+  <si>
+    <t>SO-0224669</t>
+  </si>
+  <si>
+    <t>SO-0224670</t>
+  </si>
+  <si>
+    <t>SO-0224671</t>
+  </si>
+  <si>
+    <t>SO-0224672</t>
+  </si>
+  <si>
+    <t>SO-0224673</t>
+  </si>
+  <si>
+    <t>SO-0224674</t>
+  </si>
+  <si>
+    <t>SO-0224675</t>
+  </si>
+  <si>
+    <t>SO-0224676</t>
+  </si>
+  <si>
+    <t>SO-0224677</t>
+  </si>
+  <si>
+    <t>SO-0224678</t>
+  </si>
+  <si>
+    <t>SO-0224679</t>
+  </si>
+  <si>
+    <t>SO-0224681</t>
+  </si>
+  <si>
+    <t>SO-0224682</t>
+  </si>
+  <si>
+    <t>SO-0224683</t>
+  </si>
+  <si>
+    <t>SO-0224684</t>
+  </si>
+  <si>
+    <t>SO-0224685</t>
+  </si>
+  <si>
+    <t>SO-0224686</t>
+  </si>
+  <si>
+    <t>SO-0224687</t>
+  </si>
+  <si>
+    <t>SO-0224688</t>
+  </si>
+  <si>
+    <t>SO-0224689</t>
+  </si>
+  <si>
+    <t>SO-0224690</t>
+  </si>
+  <si>
+    <t>SO-0224691</t>
+  </si>
+  <si>
+    <t>SO-0224692</t>
+  </si>
+  <si>
+    <t>SO-0224693</t>
+  </si>
+  <si>
+    <t>SO-0224694</t>
+  </si>
+  <si>
+    <t>SO-0224695</t>
+  </si>
+  <si>
+    <t>SO-0224696</t>
+  </si>
+  <si>
+    <t>SO-0224697</t>
+  </si>
+  <si>
+    <t>SO-0224698</t>
+  </si>
+  <si>
+    <t>SO-0224699</t>
+  </si>
+  <si>
+    <t>SO-0224700</t>
+  </si>
+  <si>
+    <t>SO-0224701</t>
+  </si>
+  <si>
+    <t>SO-0224702</t>
+  </si>
+  <si>
+    <t>SO-0224703</t>
+  </si>
+  <si>
+    <t>SO-0224704</t>
+  </si>
+  <si>
+    <t>SO-0224705</t>
+  </si>
+  <si>
+    <t>SO-0224706</t>
+  </si>
+  <si>
+    <t>SO-0224707</t>
+  </si>
+  <si>
+    <t>SO-0224708</t>
+  </si>
+  <si>
+    <t>SO-0224709</t>
+  </si>
+  <si>
+    <t>SO-0224710</t>
+  </si>
+  <si>
+    <t>SO-0224711</t>
+  </si>
+  <si>
+    <t>SO-0224712</t>
+  </si>
+  <si>
+    <t>SO-0224713</t>
+  </si>
+  <si>
+    <t>SO-0224714</t>
+  </si>
+  <si>
+    <t>SO-0224715</t>
+  </si>
+  <si>
+    <t>SO-0224716</t>
+  </si>
+  <si>
+    <t>SO-0224717</t>
+  </si>
+  <si>
+    <t>SO-0224718</t>
+  </si>
+  <si>
+    <t>SO-0224719</t>
+  </si>
+  <si>
+    <t>SO-0224720</t>
+  </si>
+  <si>
+    <t>SO-0224721</t>
+  </si>
+  <si>
+    <t>SO-0224722</t>
+  </si>
+  <si>
+    <t>SO-0224723</t>
+  </si>
+  <si>
+    <t>SO-0224724</t>
+  </si>
+  <si>
+    <t>SO-0224725</t>
+  </si>
+  <si>
+    <t>SO-0224726</t>
+  </si>
+  <si>
+    <t>SO-0224727</t>
+  </si>
+  <si>
+    <t>SO-0224728</t>
+  </si>
+  <si>
+    <t>SO-0224729</t>
+  </si>
+  <si>
+    <t>SO-0224730</t>
+  </si>
+  <si>
+    <t>SO-0224731</t>
+  </si>
+  <si>
+    <t>SO-0224732</t>
+  </si>
+  <si>
+    <t>SO-0224733</t>
+  </si>
+  <si>
+    <t>SO-0224734</t>
+  </si>
+  <si>
+    <t>SO-0224735</t>
+  </si>
+  <si>
+    <t>SO-0224736</t>
+  </si>
+  <si>
+    <t>SO-0224737</t>
+  </si>
+  <si>
+    <t>SO-0224738</t>
+  </si>
+  <si>
+    <t>SO-0224739</t>
+  </si>
+  <si>
+    <t>SO-0224740</t>
+  </si>
+  <si>
+    <t>SO-0224741</t>
+  </si>
+  <si>
+    <t>SO-0224742</t>
+  </si>
+  <si>
+    <t>SO-0224743</t>
+  </si>
+  <si>
+    <t>SO-0224744</t>
+  </si>
+  <si>
+    <t>SO-0224745</t>
+  </si>
+  <si>
+    <t>SO-0224746</t>
+  </si>
+  <si>
+    <t>SO-0224747</t>
+  </si>
+  <si>
+    <t>SO-0224748</t>
+  </si>
+  <si>
+    <t>SO-0224749</t>
+  </si>
+  <si>
+    <t>SO-0224750</t>
+  </si>
+  <si>
+    <t>SO-0224751</t>
+  </si>
+  <si>
+    <t>SO-0224752</t>
+  </si>
+  <si>
+    <t>SO-0224753</t>
+  </si>
+  <si>
+    <t>SO-0224754</t>
+  </si>
+  <si>
+    <t>SO-0224755</t>
+  </si>
+  <si>
+    <t>SO-0224756</t>
+  </si>
+  <si>
+    <t>SO-0224757</t>
+  </si>
+  <si>
+    <t>SO-0224758</t>
+  </si>
+  <si>
+    <t>SO-0224759</t>
+  </si>
+  <si>
+    <t>SO-0224760</t>
+  </si>
+  <si>
+    <t>SO-0224761</t>
+  </si>
+  <si>
+    <t>SO-0224762</t>
+  </si>
+  <si>
+    <t>SO-0224763</t>
+  </si>
+  <si>
+    <t>SO-0224764</t>
+  </si>
+  <si>
+    <t>SO-0224765</t>
+  </si>
+  <si>
+    <t>SO-0224766</t>
+  </si>
+  <si>
+    <t>SO-0224767</t>
+  </si>
+  <si>
+    <t>SO-0224768</t>
+  </si>
+  <si>
+    <t>SO-0224769</t>
+  </si>
+  <si>
+    <t>SO-0224770</t>
+  </si>
+  <si>
+    <t>SO-0224771</t>
+  </si>
+  <si>
+    <t>SO-0224772</t>
+  </si>
+  <si>
+    <t>SO-0224773</t>
+  </si>
+  <si>
+    <t>SO-0224774</t>
+  </si>
+  <si>
+    <t>SO-0224775</t>
+  </si>
+  <si>
+    <t>SO-0224776</t>
+  </si>
+  <si>
+    <t>SO-0224777</t>
+  </si>
+  <si>
+    <t>SO-0224778</t>
+  </si>
+  <si>
+    <t>SO-0224779</t>
+  </si>
+  <si>
+    <t>SO-0224780</t>
+  </si>
+  <si>
+    <t>SO-0224781</t>
+  </si>
+  <si>
+    <t>SO-0224782</t>
+  </si>
+  <si>
+    <t>SO-0224783</t>
+  </si>
+  <si>
+    <t>SO-0224784</t>
+  </si>
+  <si>
+    <t>SO-0224785</t>
+  </si>
+  <si>
+    <t>SO-0224786</t>
+  </si>
+  <si>
+    <t>SO-0224788</t>
+  </si>
+  <si>
+    <t>SO-0224789</t>
+  </si>
+  <si>
+    <t>SO-0224790</t>
+  </si>
+  <si>
+    <t>SO-0224791</t>
+  </si>
+  <si>
+    <t>SO-0224792</t>
+  </si>
+  <si>
+    <t>SO-0224794</t>
+  </si>
+  <si>
+    <t>SO-0224795</t>
+  </si>
+  <si>
+    <t>SO-0224796</t>
+  </si>
+  <si>
+    <t>SO-0224797</t>
+  </si>
+  <si>
+    <t>SO-0224798</t>
+  </si>
+  <si>
+    <t>SO-0224799</t>
+  </si>
+  <si>
+    <t>SO-0224800</t>
+  </si>
+  <si>
+    <t>SO-0224801</t>
+  </si>
+  <si>
+    <t>SO-0224802</t>
+  </si>
+  <si>
+    <t>SO-0224803</t>
+  </si>
+  <si>
+    <t>SO-0224804</t>
+  </si>
+  <si>
+    <t>SO-0224805</t>
+  </si>
+  <si>
+    <t>SO-0224806</t>
+  </si>
+  <si>
+    <t>SO-0224807</t>
+  </si>
+  <si>
+    <t>SO-0224808</t>
+  </si>
+  <si>
+    <t>SO-0224809</t>
+  </si>
+  <si>
+    <t>SO-0224810</t>
+  </si>
+  <si>
+    <t>SO-0224811</t>
+  </si>
+  <si>
+    <t>SO-0224812</t>
+  </si>
+  <si>
+    <t>SO-0224813</t>
+  </si>
+  <si>
+    <t>SO-0224814</t>
+  </si>
+  <si>
+    <t>SO-0224815</t>
+  </si>
+  <si>
+    <t>SO-0224816</t>
+  </si>
+  <si>
+    <t>SO-0224817</t>
+  </si>
+  <si>
+    <t>SO-0224818</t>
+  </si>
+  <si>
+    <t>SO-0224819</t>
+  </si>
+  <si>
+    <t>SO-0224820</t>
+  </si>
+  <si>
+    <t>SO-0224821</t>
+  </si>
+  <si>
+    <t>SO-0224822</t>
+  </si>
+  <si>
+    <t>SO-0224823</t>
+  </si>
+  <si>
+    <t>SO-0224824</t>
+  </si>
+  <si>
+    <t>SO-0224825</t>
+  </si>
+  <si>
+    <t>SO-0224826</t>
+  </si>
+  <si>
+    <t>SO-0224827</t>
+  </si>
+  <si>
+    <t>SO-0224828</t>
+  </si>
+  <si>
+    <t>SO-0224829</t>
+  </si>
+  <si>
+    <t>SO-0224830</t>
+  </si>
+  <si>
+    <t>SO-0224831</t>
+  </si>
+  <si>
+    <t>SO-0224832</t>
+  </si>
+  <si>
+    <t>SO-0224833</t>
+  </si>
+  <si>
+    <t>SO-0224834</t>
+  </si>
+  <si>
+    <t>SO-0224835</t>
+  </si>
+  <si>
+    <t>SO-0224836</t>
+  </si>
+  <si>
+    <t>SO-0224837</t>
+  </si>
+  <si>
+    <t>SO-0224838</t>
+  </si>
+  <si>
+    <t>SO-0224839</t>
+  </si>
+  <si>
+    <t>SO-0224840</t>
+  </si>
+  <si>
+    <t>SO-0224841</t>
+  </si>
+  <si>
+    <t>SO-0224842</t>
+  </si>
+  <si>
+    <t>SO-0224843</t>
+  </si>
+  <si>
+    <t>SO-0224844</t>
+  </si>
+  <si>
+    <t>SO-0224845</t>
+  </si>
+  <si>
+    <t>SO-0224846</t>
+  </si>
+  <si>
+    <t>SO-0224847</t>
+  </si>
+  <si>
+    <t>SO-0224848</t>
+  </si>
+  <si>
+    <t>SO-0224849</t>
+  </si>
+  <si>
+    <t>SO-0224850</t>
+  </si>
+  <si>
+    <t>SO-0224851</t>
+  </si>
+  <si>
+    <t>SO-0224852</t>
+  </si>
+  <si>
+    <t>SO-0224853</t>
+  </si>
+  <si>
+    <t>SO-0224854</t>
+  </si>
+  <si>
+    <t>SO-0224855</t>
+  </si>
+  <si>
+    <t>SO-0224856</t>
+  </si>
+  <si>
+    <t>SO-0224857</t>
+  </si>
+  <si>
+    <t>SO-0224858</t>
+  </si>
+  <si>
+    <t>SO-0224859</t>
+  </si>
+  <si>
+    <t>SO-0224861</t>
+  </si>
+  <si>
+    <t>SO-0224862</t>
+  </si>
+  <si>
+    <t>SO-0224863</t>
+  </si>
+  <si>
+    <t>SO-0224864</t>
+  </si>
+  <si>
+    <t>SO-0224866</t>
+  </si>
+  <si>
+    <t>SO-0224867</t>
+  </si>
+  <si>
+    <t>SO-0224868</t>
+  </si>
+  <si>
+    <t>SO-0224869</t>
+  </si>
+  <si>
+    <t>SO-0224870</t>
+  </si>
+  <si>
+    <t>SO-0224871</t>
+  </si>
+  <si>
+    <t>SO-0224872</t>
+  </si>
+  <si>
+    <t>SO-0224873</t>
+  </si>
+  <si>
+    <t>SO-0224874</t>
+  </si>
+  <si>
+    <t>SO-0224875</t>
+  </si>
+  <si>
+    <t>SO-0224876</t>
+  </si>
+  <si>
+    <t>SO-0224878</t>
+  </si>
+  <si>
+    <t>SO-0224879</t>
+  </si>
+  <si>
+    <t>SO-0224880</t>
+  </si>
+  <si>
+    <t>SO-0224881</t>
+  </si>
+  <si>
+    <t>SO-0224882</t>
+  </si>
+  <si>
+    <t>SO-0224883</t>
+  </si>
+  <si>
+    <t>SO-0224884</t>
+  </si>
+  <si>
+    <t>SO-0224885</t>
+  </si>
+  <si>
+    <t>SO-0224886</t>
+  </si>
+  <si>
+    <t>SO-0224887</t>
+  </si>
+  <si>
+    <t>SO-0224888</t>
+  </si>
+  <si>
+    <t>SO-0224889</t>
+  </si>
+  <si>
+    <t>SO-0224890</t>
+  </si>
+  <si>
+    <t>SO-0224891</t>
+  </si>
+  <si>
+    <t>SO-0224892</t>
+  </si>
+  <si>
+    <t>SO-0224893</t>
+  </si>
+  <si>
+    <t>SO-0224894</t>
+  </si>
+  <si>
+    <t>SO-0224895</t>
+  </si>
+  <si>
+    <t>SO-0224896</t>
+  </si>
+  <si>
+    <t>SO-0224897</t>
+  </si>
+  <si>
+    <t>SO-0224898</t>
+  </si>
+  <si>
+    <t>SO-0224899</t>
+  </si>
+  <si>
+    <t>SO-0224900</t>
+  </si>
+  <si>
+    <t>SO-0224901</t>
+  </si>
+  <si>
+    <t>SO-0224902</t>
+  </si>
+  <si>
+    <t>SO-0224903</t>
+  </si>
+  <si>
+    <t>SO-0224904</t>
+  </si>
+  <si>
+    <t>SO-0224905</t>
+  </si>
+  <si>
+    <t>SO-0224906</t>
+  </si>
+  <si>
+    <t>SO-0224907</t>
+  </si>
+  <si>
+    <t>SO-0224908</t>
+  </si>
+  <si>
+    <t>SO-0224909</t>
+  </si>
+  <si>
+    <t>SO-0224910</t>
+  </si>
+  <si>
+    <t>SO-0224911</t>
+  </si>
+  <si>
+    <t>SO-0224912</t>
+  </si>
+  <si>
+    <t>SO-0224913</t>
+  </si>
+  <si>
+    <t>SO-0224914</t>
+  </si>
+  <si>
+    <t>SO-0224915</t>
+  </si>
+  <si>
+    <t>SO-0224916</t>
+  </si>
+  <si>
+    <t>SO-0224917</t>
+  </si>
+  <si>
+    <t>SO-0224918</t>
+  </si>
+  <si>
+    <t>SO-0224919</t>
+  </si>
+  <si>
+    <t>SO-0224920</t>
+  </si>
+  <si>
+    <t>SO-0224921</t>
+  </si>
+  <si>
+    <t>SO-0224922</t>
+  </si>
+  <si>
+    <t>SO-0224923</t>
+  </si>
+  <si>
+    <t>SO-0224924</t>
+  </si>
+  <si>
+    <t>SO-0224925</t>
+  </si>
+  <si>
+    <t>SO-0224926</t>
+  </si>
+  <si>
+    <t>SO-0224927</t>
+  </si>
+  <si>
+    <t>SO-0224928</t>
+  </si>
+  <si>
+    <t>SO-0224929</t>
+  </si>
+  <si>
+    <t>SO-0224930</t>
+  </si>
+  <si>
+    <t>SO-0224931</t>
+  </si>
+  <si>
+    <t>SO-0224932</t>
+  </si>
+  <si>
+    <t>SO-0224933</t>
+  </si>
+  <si>
+    <t>SO-0224934</t>
+  </si>
+  <si>
+    <t>SO-0224935</t>
+  </si>
+  <si>
+    <t>SO-0224936</t>
+  </si>
+  <si>
+    <t>SO-0224937</t>
+  </si>
+  <si>
+    <t>SO-0224938</t>
+  </si>
+  <si>
+    <t>SO-0224939</t>
+  </si>
+  <si>
+    <t>SO-0224940</t>
+  </si>
+  <si>
+    <t>SO-0224941</t>
+  </si>
+  <si>
+    <t>SO-0224942</t>
+  </si>
+  <si>
+    <t>SO-0224943</t>
+  </si>
+  <si>
+    <t>SO-0224944</t>
+  </si>
+  <si>
+    <t>SO-0224945</t>
+  </si>
+  <si>
+    <t>SO-0224946</t>
+  </si>
+  <si>
+    <t>SO-0224947</t>
+  </si>
+  <si>
+    <t>SO-0224948</t>
+  </si>
+  <si>
+    <t>SO-0224949</t>
+  </si>
+  <si>
+    <t>SO-0224950</t>
+  </si>
+  <si>
+    <t>SO-0224951</t>
+  </si>
+  <si>
+    <t>SO-0224952</t>
+  </si>
+  <si>
+    <t>SO-0224953</t>
+  </si>
+  <si>
+    <t>SO-0224954</t>
+  </si>
+  <si>
+    <t>SO-0224955</t>
+  </si>
+  <si>
+    <t>SO-0224956</t>
+  </si>
+  <si>
+    <t>SO-0224957</t>
+  </si>
+  <si>
+    <t>SO-0224958</t>
+  </si>
+  <si>
+    <t>SO-0224959</t>
+  </si>
+  <si>
+    <t>SO-0224960</t>
+  </si>
+  <si>
+    <t>SO-0224961</t>
+  </si>
+  <si>
+    <t>SO-0224962</t>
+  </si>
+  <si>
+    <t>SO-0224963</t>
+  </si>
+  <si>
+    <t>SO-0224964</t>
+  </si>
+  <si>
+    <t>SO-0224965</t>
+  </si>
+  <si>
+    <t>SO-0224966</t>
+  </si>
+  <si>
+    <t>SO-0224967</t>
+  </si>
+  <si>
+    <t>SO-0224968</t>
+  </si>
+  <si>
+    <t>SO-0224969</t>
+  </si>
+  <si>
+    <t>SO-0224970</t>
+  </si>
+  <si>
+    <t>SO-0224971</t>
+  </si>
+  <si>
+    <t>SO-0224972</t>
+  </si>
+  <si>
+    <t>SO-0224973</t>
+  </si>
+  <si>
+    <t>SO-0224974</t>
+  </si>
+  <si>
+    <t>SO-0224975</t>
+  </si>
+  <si>
+    <t>SO-0224976</t>
+  </si>
+  <si>
+    <t>SO-0224977</t>
+  </si>
+  <si>
+    <t>SO-0224980</t>
+  </si>
+  <si>
+    <t>SO-0224981</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -4008,12 +5316,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -4294,15 +5603,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3270"/>
+  <dimension ref="A1:B3705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
@@ -30465,7 +31774,3488 @@
         <v>45800</v>
       </c>
     </row>
+    <row r="3271" spans="1:2">
+      <c r="A3271" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B3271" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:2">
+      <c r="A3272" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B3272" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:2">
+      <c r="A3273" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B3273" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:2">
+      <c r="A3274" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B3274" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:2">
+      <c r="A3275" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B3275" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:2">
+      <c r="A3276" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B3276" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:2">
+      <c r="A3277" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B3277" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:2">
+      <c r="A3278" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B3278" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:2">
+      <c r="A3279" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B3279" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:2">
+      <c r="A3280" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B3280" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:2">
+      <c r="A3281" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B3281" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:2">
+      <c r="A3282" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B3282" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:2">
+      <c r="A3283" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B3283" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:2">
+      <c r="A3284" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B3284" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:2">
+      <c r="A3285" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B3285" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:2">
+      <c r="A3286" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B3286" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:2">
+      <c r="A3287" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B3287" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:2">
+      <c r="A3288" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B3288" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:2">
+      <c r="A3289" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B3289" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:2">
+      <c r="A3290" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B3290" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:2">
+      <c r="A3291" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B3291" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:2">
+      <c r="A3292" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B3292" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:2">
+      <c r="A3293" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B3293" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:2">
+      <c r="A3294" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B3294" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:2">
+      <c r="A3295" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B3295" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:2">
+      <c r="A3296" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B3296" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:2">
+      <c r="A3297" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B3297" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:2">
+      <c r="A3298" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B3298" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:2">
+      <c r="A3299" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B3299" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:2">
+      <c r="A3300" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B3300" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:2">
+      <c r="A3301" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B3301" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:2">
+      <c r="A3302" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B3302" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:2">
+      <c r="A3303" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B3303" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:2">
+      <c r="A3304" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B3304" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:2">
+      <c r="A3305" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B3305" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:2">
+      <c r="A3306" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B3306" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:2">
+      <c r="A3307" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B3307" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:2">
+      <c r="A3308" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B3308" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:2">
+      <c r="A3309" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B3309" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:2">
+      <c r="A3310" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B3310" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:2">
+      <c r="A3311" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B3311" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:2">
+      <c r="A3312" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B3312" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:2">
+      <c r="A3313" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B3313" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:2">
+      <c r="A3314" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B3314" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:2">
+      <c r="A3315" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B3315" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:2">
+      <c r="A3316" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B3316" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:2">
+      <c r="A3317" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B3317" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:2">
+      <c r="A3318" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B3318" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:2">
+      <c r="A3319" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B3319" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:2">
+      <c r="A3320" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B3320" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:2">
+      <c r="A3321" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B3321" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:2">
+      <c r="A3322" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B3322" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:2">
+      <c r="A3323" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B3323" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:2">
+      <c r="A3324" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B3324" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:2">
+      <c r="A3325" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B3325" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:2">
+      <c r="A3326" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B3326" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:2">
+      <c r="A3327" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B3327" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:2">
+      <c r="A3328" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B3328" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:2">
+      <c r="A3329" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B3329" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:2">
+      <c r="A3330" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B3330" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:2">
+      <c r="A3331" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B3331" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:2">
+      <c r="A3332" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B3332" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:2">
+      <c r="A3333" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B3333" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:2">
+      <c r="A3334" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B3334" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:2">
+      <c r="A3335" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B3335" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:2">
+      <c r="A3336" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B3336" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:2">
+      <c r="A3337" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B3337" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:2">
+      <c r="A3338" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B3338" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:2">
+      <c r="A3339" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B3339" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:2">
+      <c r="A3340" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B3340" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:2">
+      <c r="A3341" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B3341" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:2">
+      <c r="A3342" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B3342" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:2">
+      <c r="A3343" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B3343" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:2">
+      <c r="A3344" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B3344" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:2">
+      <c r="A3345" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B3345" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:2">
+      <c r="A3346" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B3346" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:2">
+      <c r="A3347" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B3347" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:2">
+      <c r="A3348" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B3348" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:2">
+      <c r="A3349" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B3349" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:2">
+      <c r="A3350" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B3350" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:2">
+      <c r="A3351" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B3351" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:2">
+      <c r="A3352" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B3352" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:2">
+      <c r="A3353" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B3353" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:2">
+      <c r="A3354" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B3354" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:2">
+      <c r="A3355" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B3355" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:2">
+      <c r="A3356" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B3356" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:2">
+      <c r="A3357" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B3357" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:2">
+      <c r="A3358" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B3358" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:2">
+      <c r="A3359" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B3359" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:2">
+      <c r="A3360" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B3360" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:2">
+      <c r="A3361" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B3361" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:2">
+      <c r="A3362" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B3362" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:2">
+      <c r="A3363" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B3363" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:2">
+      <c r="A3364" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B3364" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:2">
+      <c r="A3365" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B3365" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:2">
+      <c r="A3366" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B3366" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:2">
+      <c r="A3367" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B3367" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:2">
+      <c r="A3368" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B3368" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:2">
+      <c r="A3369" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B3369" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:2">
+      <c r="A3370" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B3370" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:2">
+      <c r="A3371" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B3371" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:2">
+      <c r="A3372" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B3372" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:2">
+      <c r="A3373" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B3373" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:2">
+      <c r="A3374" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B3374" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:2">
+      <c r="A3375" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B3375" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:2">
+      <c r="A3376" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B3376" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:2">
+      <c r="A3377" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B3377" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:2">
+      <c r="A3378" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B3378" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:2">
+      <c r="A3379" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B3379" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:2">
+      <c r="A3380" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B3380" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:2">
+      <c r="A3381" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B3381" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:2">
+      <c r="A3382" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B3382" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:2">
+      <c r="A3383" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B3383" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:2">
+      <c r="A3384" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B3384" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:2">
+      <c r="A3385" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B3385" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:2">
+      <c r="A3386" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B3386" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:2">
+      <c r="A3387" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B3387" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:2">
+      <c r="A3388" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B3388" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:2">
+      <c r="A3389" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B3389" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:2">
+      <c r="A3390" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B3390" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:2">
+      <c r="A3391" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B3391" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:2">
+      <c r="A3392" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B3392" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:2">
+      <c r="A3393" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B3393" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:2">
+      <c r="A3394" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B3394" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:2">
+      <c r="A3395" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B3395" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:2">
+      <c r="A3396" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B3396" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:2">
+      <c r="A3397" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B3397" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:2">
+      <c r="A3398" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B3398" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:2">
+      <c r="A3399" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B3399" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:2">
+      <c r="A3400" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B3400" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:2">
+      <c r="A3401" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B3401" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:2">
+      <c r="A3402" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B3402" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:2">
+      <c r="A3403" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B3403" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:2">
+      <c r="A3404" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B3404" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:2">
+      <c r="A3405" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B3405" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:2">
+      <c r="A3406" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B3406" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:2">
+      <c r="A3407" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B3407" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:2">
+      <c r="A3408" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B3408" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:2">
+      <c r="A3409" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B3409" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:2">
+      <c r="A3410" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B3410" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:2">
+      <c r="A3411" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B3411" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:2">
+      <c r="A3412" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B3412" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:2">
+      <c r="A3413" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B3413" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:2">
+      <c r="A3414" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B3414" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:2">
+      <c r="A3415" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B3415" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:2">
+      <c r="A3416" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B3416" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:2">
+      <c r="A3417" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B3417" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:2">
+      <c r="A3418" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B3418" s="5">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:2">
+      <c r="A3419" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B3419" s="5">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:2">
+      <c r="A3420" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B3420" s="5">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:2">
+      <c r="A3421" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B3421" s="5">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:2">
+      <c r="A3422" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B3422" s="5">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:2">
+      <c r="A3423" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B3423" s="5">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:2">
+      <c r="A3424" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B3424" s="5">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:2">
+      <c r="A3425" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B3425" s="5">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:2">
+      <c r="A3426" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B3426" s="5">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:2">
+      <c r="A3427" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B3427" s="5">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:2">
+      <c r="A3428" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B3428" s="5">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:2">
+      <c r="A3429" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B3429" s="5">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:2">
+      <c r="A3430" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B3430" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:2">
+      <c r="A3431" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B3431" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:2">
+      <c r="A3432" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B3432" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:2">
+      <c r="A3433" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B3433" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:2">
+      <c r="A3434" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B3434" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:2">
+      <c r="A3435" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B3435" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:2">
+      <c r="A3436" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B3436" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:2">
+      <c r="A3437" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B3437" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:2">
+      <c r="A3438" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B3438" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:2">
+      <c r="A3439" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B3439" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:2">
+      <c r="A3440" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B3440" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:2">
+      <c r="A3441" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B3441" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:2">
+      <c r="A3442" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B3442" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:2">
+      <c r="A3443" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B3443" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:2">
+      <c r="A3444" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B3444" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:2">
+      <c r="A3445" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B3445" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:2">
+      <c r="A3446" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B3446" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:2">
+      <c r="A3447" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B3447" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:2">
+      <c r="A3448" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B3448" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:2">
+      <c r="A3449" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B3449" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:2">
+      <c r="A3450" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B3450" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:2">
+      <c r="A3451" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B3451" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:2">
+      <c r="A3452" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B3452" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:2">
+      <c r="A3453" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B3453" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:2">
+      <c r="A3454" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B3454" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:2">
+      <c r="A3455" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B3455" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:2">
+      <c r="A3456" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B3456" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:2">
+      <c r="A3457" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B3457" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:2">
+      <c r="A3458" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B3458" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:2">
+      <c r="A3459" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B3459" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:2">
+      <c r="A3460" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B3460" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:2">
+      <c r="A3461" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B3461" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:2">
+      <c r="A3462" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B3462" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:2">
+      <c r="A3463" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B3463" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:2">
+      <c r="A3464" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B3464" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:2">
+      <c r="A3465" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B3465" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:2">
+      <c r="A3466" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B3466" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:2">
+      <c r="A3467" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B3467" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:2">
+      <c r="A3468" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B3468" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:2">
+      <c r="A3469" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B3469" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:2">
+      <c r="A3470" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B3470" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:2">
+      <c r="A3471" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B3471" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:2">
+      <c r="A3472" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B3472" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:2">
+      <c r="A3473" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B3473" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:2">
+      <c r="A3474" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B3474" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:2">
+      <c r="A3475" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B3475" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:2">
+      <c r="A3476" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B3476" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:2">
+      <c r="A3477" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B3477" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:2">
+      <c r="A3478" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B3478" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:2">
+      <c r="A3479" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B3479" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:2">
+      <c r="A3480" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B3480" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:2">
+      <c r="A3481" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B3481" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:2">
+      <c r="A3482" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B3482" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:2">
+      <c r="A3483" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B3483" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:2">
+      <c r="A3484" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B3484" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:2">
+      <c r="A3485" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B3485" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:2">
+      <c r="A3486" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B3486" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:2">
+      <c r="A3487" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B3487" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:2">
+      <c r="A3488" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B3488" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:2">
+      <c r="A3489" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B3489" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:2">
+      <c r="A3490" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B3490" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:2">
+      <c r="A3491" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B3491" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:2">
+      <c r="A3492" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B3492" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:2">
+      <c r="A3493" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B3493" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:2">
+      <c r="A3494" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B3494" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:2">
+      <c r="A3495" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B3495" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:2">
+      <c r="A3496" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B3496" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:2">
+      <c r="A3497" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B3497" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:2">
+      <c r="A3498" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B3498" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:2">
+      <c r="A3499" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B3499" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:2">
+      <c r="A3500" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B3500" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:2">
+      <c r="A3501" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B3501" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:2">
+      <c r="A3502" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B3502" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:2">
+      <c r="A3503" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B3503" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:2">
+      <c r="A3504" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B3504" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:2">
+      <c r="A3505" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B3505" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:2">
+      <c r="A3506" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B3506" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:2">
+      <c r="A3507" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B3507" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:2">
+      <c r="A3508" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B3508" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:2">
+      <c r="A3509" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B3509" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:2">
+      <c r="A3510" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B3510" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:2">
+      <c r="A3511" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B3511" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:2">
+      <c r="A3512" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B3512" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:2">
+      <c r="A3513" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B3513" s="5">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:2">
+      <c r="A3514" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B3514" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:2">
+      <c r="A3515" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B3515" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:2">
+      <c r="A3516" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B3516" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:2">
+      <c r="A3517" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B3517" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:2">
+      <c r="A3518" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B3518" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:2">
+      <c r="A3519" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B3519" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:2">
+      <c r="A3520" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B3520" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:2">
+      <c r="A3521" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B3521" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:2">
+      <c r="A3522" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B3522" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:2">
+      <c r="A3523" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B3523" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:2">
+      <c r="A3524" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B3524" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:2">
+      <c r="A3525" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B3525" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:2">
+      <c r="A3526" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B3526" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:2">
+      <c r="A3527" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B3527" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:2">
+      <c r="A3528" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B3528" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:2">
+      <c r="A3529" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B3529" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:2">
+      <c r="A3530" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B3530" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:2">
+      <c r="A3531" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B3531" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:2">
+      <c r="A3532" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B3532" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:2">
+      <c r="A3533" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B3533" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:2">
+      <c r="A3534" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B3534" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:2">
+      <c r="A3535" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B3535" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:2">
+      <c r="A3536" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B3536" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:2">
+      <c r="A3537" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B3537" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:2">
+      <c r="A3538" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B3538" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:2">
+      <c r="A3539" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B3539" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:2">
+      <c r="A3540" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B3540" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:2">
+      <c r="A3541" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B3541" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:2">
+      <c r="A3542" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B3542" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:2">
+      <c r="A3543" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B3543" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:2">
+      <c r="A3544" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B3544" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:2">
+      <c r="A3545" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B3545" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:2">
+      <c r="A3546" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B3546" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:2">
+      <c r="A3547" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B3547" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:2">
+      <c r="A3548" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B3548" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:2">
+      <c r="A3549" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B3549" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:2">
+      <c r="A3550" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B3550" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:2">
+      <c r="A3551" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B3551" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:2">
+      <c r="A3552" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B3552" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:2">
+      <c r="A3553" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B3553" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:2">
+      <c r="A3554" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B3554" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:2">
+      <c r="A3555" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B3555" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:2">
+      <c r="A3556" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B3556" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:2">
+      <c r="A3557" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B3557" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:2">
+      <c r="A3558" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B3558" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:2">
+      <c r="A3559" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B3559" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:2">
+      <c r="A3560" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B3560" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:2">
+      <c r="A3561" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B3561" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:2">
+      <c r="A3562" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B3562" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:2">
+      <c r="A3563" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B3563" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:2">
+      <c r="A3564" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B3564" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:2">
+      <c r="A3565" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B3565" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:2">
+      <c r="A3566" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B3566" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:2">
+      <c r="A3567" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B3567" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:2">
+      <c r="A3568" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B3568" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:2">
+      <c r="A3569" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B3569" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:2">
+      <c r="A3570" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B3570" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:2">
+      <c r="A3571" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B3571" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:2">
+      <c r="A3572" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B3572" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:2">
+      <c r="A3573" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B3573" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:2">
+      <c r="A3574" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B3574" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:2">
+      <c r="A3575" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B3575" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:2">
+      <c r="A3576" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B3576" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:2">
+      <c r="A3577" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B3577" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:2">
+      <c r="A3578" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B3578" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:2">
+      <c r="A3579" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B3579" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:2">
+      <c r="A3580" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B3580" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:2">
+      <c r="A3581" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B3581" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:2">
+      <c r="A3582" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B3582" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:2">
+      <c r="A3583" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B3583" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:2">
+      <c r="A3584" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B3584" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:2">
+      <c r="A3585" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B3585" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:2">
+      <c r="A3586" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B3586" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:2">
+      <c r="A3587" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B3587" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:2">
+      <c r="A3588" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B3588" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:2">
+      <c r="A3589" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B3589" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:2">
+      <c r="A3590" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B3590" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:2">
+      <c r="A3591" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B3591" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:2">
+      <c r="A3592" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B3592" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:2">
+      <c r="A3593" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B3593" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:2">
+      <c r="A3594" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B3594" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:2">
+      <c r="A3595" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B3595" s="5">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:2">
+      <c r="A3596" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B3596" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:2">
+      <c r="A3597" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B3597" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:2">
+      <c r="A3598" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B3598" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:2">
+      <c r="A3599" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B3599" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:2">
+      <c r="A3600" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B3600" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:2">
+      <c r="A3601" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B3601" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:2">
+      <c r="A3602" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B3602" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:2">
+      <c r="A3603" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B3603" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:2">
+      <c r="A3604" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B3604" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:2">
+      <c r="A3605" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B3605" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:2">
+      <c r="A3606" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B3606" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:2">
+      <c r="A3607" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B3607" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:2">
+      <c r="A3608" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B3608" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:2">
+      <c r="A3609" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B3609" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:2">
+      <c r="A3610" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B3610" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:2">
+      <c r="A3611" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B3611" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:2">
+      <c r="A3612" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B3612" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:2">
+      <c r="A3613" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B3613" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:2">
+      <c r="A3614" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B3614" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:2">
+      <c r="A3615" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B3615" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:2">
+      <c r="A3616" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B3616" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:2">
+      <c r="A3617" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B3617" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:2">
+      <c r="A3618" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B3618" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:2">
+      <c r="A3619" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B3619" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:2">
+      <c r="A3620" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B3620" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:2">
+      <c r="A3621" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B3621" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:2">
+      <c r="A3622" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B3622" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:2">
+      <c r="A3623" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B3623" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:2">
+      <c r="A3624" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B3624" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:2">
+      <c r="A3625" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B3625" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:2">
+      <c r="A3626" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B3626" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:2">
+      <c r="A3627" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B3627" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:2">
+      <c r="A3628" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B3628" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:2">
+      <c r="A3629" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B3629" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:2">
+      <c r="A3630" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B3630" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:2">
+      <c r="A3631" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B3631" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:2">
+      <c r="A3632" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B3632" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:2">
+      <c r="A3633" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B3633" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:2">
+      <c r="A3634" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B3634" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:2">
+      <c r="A3635" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B3635" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:2">
+      <c r="A3636" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B3636" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:2">
+      <c r="A3637" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B3637" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:2">
+      <c r="A3638" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B3638" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:2">
+      <c r="A3639" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B3639" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:2">
+      <c r="A3640" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B3640" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:2">
+      <c r="A3641" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B3641" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:2">
+      <c r="A3642" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B3642" s="5">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:2">
+      <c r="A3643" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B3643" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:2">
+      <c r="A3644" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B3644" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:2">
+      <c r="A3645" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B3645" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:2">
+      <c r="A3646" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B3646" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:2">
+      <c r="A3647" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B3647" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:2">
+      <c r="A3648" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B3648" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:2">
+      <c r="A3649" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B3649" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:2">
+      <c r="A3650" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B3650" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:2">
+      <c r="A3651" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B3651" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:2">
+      <c r="A3652" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B3652" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:2">
+      <c r="A3653" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B3653" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:2">
+      <c r="A3654" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B3654" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:2">
+      <c r="A3655" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B3655" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:2">
+      <c r="A3656" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B3656" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3657" spans="1:2">
+      <c r="A3657" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B3657" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:2">
+      <c r="A3658" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B3658" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:2">
+      <c r="A3659" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B3659" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:2">
+      <c r="A3660" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B3660" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:2">
+      <c r="A3661" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B3661" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:2">
+      <c r="A3662" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B3662" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:2">
+      <c r="A3663" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B3663" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:2">
+      <c r="A3664" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B3664" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:2">
+      <c r="A3665" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B3665" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:2">
+      <c r="A3666" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B3666" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3667" spans="1:2">
+      <c r="A3667" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B3667" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:2">
+      <c r="A3668" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B3668" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:2">
+      <c r="A3669" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B3669" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:2">
+      <c r="A3670" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B3670" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:2">
+      <c r="A3671" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B3671" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:2">
+      <c r="A3672" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B3672" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3673" spans="1:2">
+      <c r="A3673" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B3673" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3674" spans="1:2">
+      <c r="A3674" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B3674" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3675" spans="1:2">
+      <c r="A3675" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B3675" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3676" spans="1:2">
+      <c r="A3676" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B3676" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3677" spans="1:2">
+      <c r="A3677" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B3677" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3678" spans="1:2">
+      <c r="A3678" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B3678" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3679" spans="1:2">
+      <c r="A3679" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B3679" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3680" spans="1:2">
+      <c r="A3680" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B3680" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3681" spans="1:2">
+      <c r="A3681" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B3681" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3682" spans="1:2">
+      <c r="A3682" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B3682" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3683" spans="1:2">
+      <c r="A3683" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B3683" s="5">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="3684" spans="1:2">
+      <c r="A3684" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B3684" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3685" spans="1:2">
+      <c r="A3685" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B3685" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3686" spans="1:2">
+      <c r="A3686" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B3686" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3687" spans="1:2">
+      <c r="A3687" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B3687" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3688" spans="1:2">
+      <c r="A3688" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B3688" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3689" spans="1:2">
+      <c r="A3689" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B3689" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3690" spans="1:2">
+      <c r="A3690" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B3690" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3691" spans="1:2">
+      <c r="A3691" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B3691" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3692" spans="1:2">
+      <c r="A3692" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B3692" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3693" spans="1:2">
+      <c r="A3693" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B3693" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3694" spans="1:2">
+      <c r="A3694" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B3694" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3695" spans="1:2">
+      <c r="A3695" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B3695" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3696" spans="1:2">
+      <c r="A3696" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B3696" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3697" spans="1:2">
+      <c r="A3697" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B3697" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3698" spans="1:2">
+      <c r="A3698" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B3698" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3699" spans="1:2">
+      <c r="A3699" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B3699" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3700" spans="1:2">
+      <c r="A3700" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B3700" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3701" spans="1:2">
+      <c r="A3701" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B3701" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3702" spans="1:2">
+      <c r="A3702" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B3702" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3703" spans="1:2">
+      <c r="A3703" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B3703" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3704" spans="1:2">
+      <c r="A3704" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B3704" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3705" spans="1:2">
+      <c r="A3705" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B3705" s="5">
+        <v>45808</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>